--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H2">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I2">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J2">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N2">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O2">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P2">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q2">
-        <v>23.2704824041035</v>
+        <v>168.881132874572</v>
       </c>
       <c r="R2">
-        <v>93.08192961641399</v>
+        <v>675.524531498288</v>
       </c>
       <c r="S2">
-        <v>3.35197006388691E-05</v>
+        <v>0.0001953279265929536</v>
       </c>
       <c r="T2">
-        <v>1.546958255011584E-05</v>
+        <v>9.290253682788301E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H3">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I3">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J3">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>62.010492</v>
       </c>
       <c r="O3">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P3">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q3">
-        <v>125.236296627462</v>
+        <v>422.780320568764</v>
       </c>
       <c r="R3">
-        <v>751.4177797647719</v>
+        <v>2536.681923412584</v>
       </c>
       <c r="S3">
-        <v>0.0001803951933258112</v>
+        <v>0.0004889877395738082</v>
       </c>
       <c r="T3">
-        <v>0.0001248805157090998</v>
+        <v>0.0003488610329039693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H4">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I4">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J4">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N4">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O4">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P4">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q4">
-        <v>346.442722411809</v>
+        <v>661.6874184245107</v>
       </c>
       <c r="R4">
-        <v>2078.656334470854</v>
+        <v>3970.124510547064</v>
       </c>
       <c r="S4">
-        <v>0.0004990294632530221</v>
+        <v>0.0007653077007097934</v>
       </c>
       <c r="T4">
-        <v>0.0003454585212396341</v>
+        <v>0.0005459974010630202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H5">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I5">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J5">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N5">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O5">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P5">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q5">
-        <v>52.64135696871224</v>
+        <v>256.598026489991</v>
       </c>
       <c r="R5">
-        <v>210.565427874849</v>
+        <v>1026.392105959964</v>
       </c>
       <c r="S5">
-        <v>7.582664150116312E-05</v>
+        <v>0.000296781290064879</v>
       </c>
       <c r="T5">
-        <v>3.499453956459493E-05</v>
+        <v>0.0001411561327200086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H6">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I6">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J6">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N6">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O6">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P6">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q6">
-        <v>33.184249148532</v>
+        <v>185.8197489535017</v>
       </c>
       <c r="R6">
-        <v>199.105494891192</v>
+        <v>1114.91849372101</v>
       </c>
       <c r="S6">
-        <v>4.779987273440849E-05</v>
+        <v>0.0002149191307833511</v>
       </c>
       <c r="T6">
-        <v>3.308997677738112E-05</v>
+        <v>0.0001533308586044539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H7">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I7">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J7">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N7">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O7">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P7">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q7">
-        <v>336.6969579882014</v>
+        <v>838.5383164112326</v>
       </c>
       <c r="R7">
-        <v>2020.181747929209</v>
+        <v>5031.229898467396</v>
       </c>
       <c r="S7">
-        <v>0.0004849912881819862</v>
+        <v>0.0009698534580236318</v>
       </c>
       <c r="T7">
-        <v>0.0003357404433343136</v>
+        <v>0.0006919275305890174</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J8">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N8">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O8">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P8">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q8">
-        <v>122.058681934986</v>
+        <v>262.3976105245627</v>
       </c>
       <c r="R8">
-        <v>732.352091609916</v>
+        <v>1574.385663147376</v>
       </c>
       <c r="S8">
-        <v>0.000175818034529194</v>
+        <v>0.0003034890892446478</v>
       </c>
       <c r="T8">
-        <v>0.0001217119282292126</v>
+        <v>0.0002165197786784014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J9">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>62.010492</v>
       </c>
       <c r="O9">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P9">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q9">
         <v>656.8912939282853</v>
@@ -1013,10 +1013,10 @@
         <v>5912.021645354568</v>
       </c>
       <c r="S9">
-        <v>0.0009462115628884738</v>
+        <v>0.0007597605028814537</v>
       </c>
       <c r="T9">
-        <v>0.0009825377198106216</v>
+        <v>0.0008130597528658161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J10">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N10">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O10">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P10">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q10">
-        <v>1817.166542971919</v>
+        <v>1028.091146437948</v>
       </c>
       <c r="R10">
-        <v>16354.49888674728</v>
+        <v>9252.820317941529</v>
       </c>
       <c r="S10">
-        <v>0.002617516795468169</v>
+        <v>0.001189090270559957</v>
       </c>
       <c r="T10">
-        <v>0.002718006294421525</v>
+        <v>0.001272508162572221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J11">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N11">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O11">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P11">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q11">
-        <v>276.1152319617177</v>
+        <v>398.6869810158047</v>
       </c>
       <c r="R11">
-        <v>1656.691391770306</v>
+        <v>2392.121886094828</v>
       </c>
       <c r="S11">
-        <v>0.0003977270327475724</v>
+        <v>0.0004611213818612818</v>
       </c>
       <c r="T11">
-        <v>0.0002753308225417125</v>
+        <v>0.0003289801942896176</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J12">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N12">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O12">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P12">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q12">
-        <v>174.0585193608942</v>
+        <v>288.7158398557523</v>
       </c>
       <c r="R12">
-        <v>1566.526674248048</v>
+        <v>2598.44255870177</v>
       </c>
       <c r="S12">
-        <v>0.000250720606530836</v>
+        <v>0.0003339287545841567</v>
       </c>
       <c r="T12">
-        <v>0.0002603460607671512</v>
+        <v>0.000357354758041887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J13">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N13">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O13">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P13">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q13">
-        <v>1766.047913828905</v>
+        <v>1302.871711092877</v>
       </c>
       <c r="R13">
-        <v>15894.43122446014</v>
+        <v>11725.84539983589</v>
       </c>
       <c r="S13">
-        <v>0.002543883549874556</v>
+        <v>0.001506901485161122</v>
       </c>
       <c r="T13">
-        <v>0.00264154618331598</v>
+        <v>0.001612614691697658</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H14">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I14">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J14">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N14">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O14">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P14">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q14">
-        <v>12883.72438363422</v>
+        <v>7575.617538972881</v>
       </c>
       <c r="R14">
-        <v>77302.34630180534</v>
+        <v>45453.70523383728</v>
       </c>
       <c r="S14">
-        <v>0.01855821366113854</v>
+        <v>0.008761959618353469</v>
       </c>
       <c r="T14">
-        <v>0.01284712330697695</v>
+        <v>0.00625108982361362</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H15">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I15">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J15">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>62.010492</v>
       </c>
       <c r="O15">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P15">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q15">
-        <v>69337.19295353997</v>
+        <v>18964.94864238056</v>
       </c>
       <c r="R15">
-        <v>624034.7365818596</v>
+        <v>170684.5377814251</v>
       </c>
       <c r="S15">
-        <v>0.09987596778536584</v>
+        <v>0.02193486053299566</v>
       </c>
       <c r="T15">
-        <v>0.103710321772171</v>
+        <v>0.0234736502048545</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H16">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I16">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J16">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N16">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O16">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P16">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q16">
-        <v>191808.337822965</v>
+        <v>29681.76922437709</v>
       </c>
       <c r="R16">
-        <v>1726275.040406685</v>
+        <v>267135.9230193939</v>
       </c>
       <c r="S16">
-        <v>0.2762881298383016</v>
+        <v>0.03432993574548113</v>
       </c>
       <c r="T16">
-        <v>0.2868951508829344</v>
+        <v>0.03673827339965766</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H17">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I17">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J17">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N17">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O17">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P17">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q17">
-        <v>29144.93660199306</v>
+        <v>11510.39477800714</v>
       </c>
       <c r="R17">
-        <v>174869.6196119583</v>
+        <v>69062.36866804284</v>
       </c>
       <c r="S17">
-        <v>0.04198149110417046</v>
+        <v>0.01331292316664117</v>
       </c>
       <c r="T17">
-        <v>0.02906213942107105</v>
+        <v>0.009497907106901186</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H18">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I18">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J18">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N18">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O18">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P18">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q18">
-        <v>18372.4906292507</v>
+        <v>8335.444731444235</v>
       </c>
       <c r="R18">
-        <v>165352.4156632563</v>
+        <v>75019.0025829981</v>
       </c>
       <c r="S18">
-        <v>0.02646444431999892</v>
+        <v>0.009640775786555058</v>
       </c>
       <c r="T18">
-        <v>0.02748044496396805</v>
+        <v>0.01031710222987764</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H19">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I19">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J19">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N19">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O19">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P19">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q19">
-        <v>186412.5862196615</v>
+        <v>37614.89201771097</v>
       </c>
       <c r="R19">
-        <v>1677713.275976953</v>
+        <v>338534.0281593988</v>
       </c>
       <c r="S19">
-        <v>0.2685158810587689</v>
+        <v>0.04350538595862048</v>
       </c>
       <c r="T19">
-        <v>0.2788245164781601</v>
+        <v>0.04655740621116116</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H20">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I20">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J20">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N20">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O20">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P20">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q20">
-        <v>486.916290136305</v>
+        <v>1587.212413955866</v>
       </c>
       <c r="R20">
-        <v>1947.66516054522</v>
+        <v>6348.849655823464</v>
       </c>
       <c r="S20">
-        <v>0.0007013730097266738</v>
+        <v>0.001835769956084159</v>
       </c>
       <c r="T20">
-        <v>0.0003236886805548763</v>
+        <v>0.0008731351882316158</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H21">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I21">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J21">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>62.010492</v>
       </c>
       <c r="O21">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P21">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q21">
-        <v>2620.46965272626</v>
+        <v>3973.458501615842</v>
       </c>
       <c r="R21">
-        <v>15722.81791635756</v>
+        <v>23840.75100969505</v>
       </c>
       <c r="S21">
-        <v>0.003774625586495634</v>
+        <v>0.004595702298492966</v>
       </c>
       <c r="T21">
-        <v>0.002613025220683043</v>
+        <v>0.003278735479480062</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H22">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I22">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J22">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N22">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O22">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P22">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q22">
-        <v>7249.037738544403</v>
+        <v>6218.802934379915</v>
       </c>
       <c r="R22">
-        <v>43494.22643126642</v>
+        <v>37312.8176062795</v>
       </c>
       <c r="S22">
-        <v>0.01044179362921265</v>
+        <v>0.00719266777991575</v>
       </c>
       <c r="T22">
-        <v>0.007228444113746205</v>
+        <v>0.005131501892508617</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H23">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I23">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J23">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N23">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O23">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P23">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q23">
-        <v>1101.478422227568</v>
+        <v>2411.610853794861</v>
       </c>
       <c r="R23">
-        <v>4405.91368891027</v>
+        <v>9646.443415179443</v>
       </c>
       <c r="S23">
-        <v>0.001586612014830052</v>
+        <v>0.002789269232168552</v>
       </c>
       <c r="T23">
-        <v>0.000732232838319501</v>
+        <v>0.00132664177664889</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H24">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I24">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J24">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N24">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O24">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P24">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q24">
-        <v>694.3539547556933</v>
+        <v>1746.408300779276</v>
       </c>
       <c r="R24">
-        <v>4166.123728534159</v>
+        <v>10478.44980467566</v>
       </c>
       <c r="S24">
-        <v>0.001000174224867873</v>
+        <v>0.002019895926617752</v>
       </c>
       <c r="T24">
-        <v>0.0006923813805552099</v>
+        <v>0.001441064718580795</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H25">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I25">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J25">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N25">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O25">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P25">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q25">
-        <v>7045.115388535511</v>
+        <v>7880.918387574106</v>
       </c>
       <c r="R25">
-        <v>42270.69233121306</v>
+        <v>47285.51032544464</v>
       </c>
       <c r="S25">
-        <v>0.01014805600885858</v>
+        <v>0.009115070594868747</v>
       </c>
       <c r="T25">
-        <v>0.007025101082057277</v>
+        <v>0.006503011600025062</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H26">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I26">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J26">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N26">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O26">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P26">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q26">
-        <v>35.694191915514</v>
+        <v>6191.820549437623</v>
       </c>
       <c r="R26">
-        <v>214.165151493084</v>
+        <v>37150.92329662574</v>
       </c>
       <c r="S26">
-        <v>5.14152911305091E-05</v>
+        <v>0.007161459952163758</v>
       </c>
       <c r="T26">
-        <v>3.559278910561076E-05</v>
+        <v>0.005109237131773025</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H27">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I27">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J27">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>62.010492</v>
       </c>
       <c r="O27">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P27">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q27">
-        <v>192.097797071048</v>
+        <v>15500.72428007528</v>
       </c>
       <c r="R27">
-        <v>1728.880173639432</v>
+        <v>139506.5185206776</v>
       </c>
       <c r="S27">
-        <v>0.0002767050781066874</v>
+        <v>0.01792813846508745</v>
       </c>
       <c r="T27">
-        <v>0.0002873281062778656</v>
+        <v>0.01918584576914042</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H28">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I28">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J28">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N28">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O28">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P28">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q28">
-        <v>531.4025213039693</v>
+        <v>24259.96134066731</v>
       </c>
       <c r="R28">
-        <v>4782.622691735723</v>
+        <v>218339.6520660058</v>
       </c>
       <c r="S28">
-        <v>0.0007654526933961746</v>
+        <v>0.02805907248038862</v>
       </c>
       <c r="T28">
-        <v>0.0007948393081315809</v>
+        <v>0.03002749215052107</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H29">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I29">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J29">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N29">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O29">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P29">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q29">
-        <v>80.74567023169899</v>
+        <v>9407.853360066421</v>
       </c>
       <c r="R29">
-        <v>484.474021390194</v>
+        <v>56447.12016039853</v>
       </c>
       <c r="S29">
-        <v>0.0001163091786001875</v>
+        <v>0.01088112365919006</v>
       </c>
       <c r="T29">
-        <v>8.051628171189739E-05</v>
+        <v>0.0077629759024416</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H30">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I30">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J30">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N30">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O30">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P30">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q30">
-        <v>50.90074787066132</v>
+        <v>6812.854227571736</v>
       </c>
       <c r="R30">
-        <v>458.106730835952</v>
+        <v>61315.68804814563</v>
       </c>
       <c r="S30">
-        <v>7.331940100297428E-05</v>
+        <v>0.007879747534853206</v>
       </c>
       <c r="T30">
-        <v>7.613421765786848E-05</v>
+        <v>0.008432533093040265</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H31">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I31">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J31">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N31">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O31">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P31">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q31">
-        <v>516.4536612133726</v>
+        <v>30743.98359763523</v>
       </c>
       <c r="R31">
-        <v>4648.082950920353</v>
+        <v>276695.8523787171</v>
       </c>
       <c r="S31">
-        <v>0.0007439197785890118</v>
+        <v>0.03555849294186043</v>
       </c>
       <c r="T31">
-        <v>0.0007724797198055611</v>
+        <v>0.0380530171994226</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H32">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I32">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J32">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N32">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O32">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P32">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q32">
-        <v>4056.650671211433</v>
+        <v>41829.53331949865</v>
       </c>
       <c r="R32">
-        <v>24339.9040272686</v>
+        <v>250977.1999169918</v>
       </c>
       <c r="S32">
-        <v>0.005843356133927694</v>
+        <v>0.0483800402956602</v>
       </c>
       <c r="T32">
-        <v>0.004045126225502441</v>
+        <v>0.03451602047157688</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H33">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I33">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J33">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>62.010492</v>
       </c>
       <c r="O33">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P33">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q33">
-        <v>21831.94563616956</v>
+        <v>104716.8692265575</v>
       </c>
       <c r="R33">
-        <v>196487.510725526</v>
+        <v>942451.8230390172</v>
       </c>
       <c r="S33">
-        <v>0.03144757677904533</v>
+        <v>0.121115536100295</v>
       </c>
       <c r="T33">
-        <v>0.03265488564495014</v>
+        <v>0.1296121178666769</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H34">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I34">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J34">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N34">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O34">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P34">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q34">
-        <v>60393.98229923907</v>
+        <v>163890.8707264394</v>
       </c>
       <c r="R34">
-        <v>543545.8406931516</v>
+        <v>1475017.836537954</v>
       </c>
       <c r="S34">
-        <v>0.08699382212646672</v>
+        <v>0.1895561891468649</v>
       </c>
       <c r="T34">
-        <v>0.09033361563329784</v>
+        <v>0.2028540674560223</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H35">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I35">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J35">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N35">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O35">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P35">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q35">
-        <v>9176.758451855316</v>
+        <v>63555.80114892024</v>
       </c>
       <c r="R35">
-        <v>55060.55071113189</v>
+        <v>381334.8068935214</v>
       </c>
       <c r="S35">
-        <v>0.01321855691685875</v>
+        <v>0.07350864273626521</v>
       </c>
       <c r="T35">
-        <v>0.009150688409563172</v>
+        <v>0.05244364829002336</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H36">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I36">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J36">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N36">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O36">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P36">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q36">
-        <v>5784.878209413549</v>
+        <v>46024.9954981306</v>
       </c>
       <c r="R36">
-        <v>52063.90388472193</v>
+        <v>414224.9594831754</v>
       </c>
       <c r="S36">
-        <v>0.00833276175562505</v>
+        <v>0.05323251205791425</v>
       </c>
       <c r="T36">
-        <v>0.008652666122684012</v>
+        <v>0.05696691646128853</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H37">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I37">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J37">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N37">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O37">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P37">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q37">
-        <v>58695.04193762782</v>
+        <v>207694.4052243577</v>
       </c>
       <c r="R37">
-        <v>528255.3774386504</v>
+        <v>1869249.647019219</v>
       </c>
       <c r="S37">
-        <v>0.08454660288384117</v>
+        <v>0.240219359302621</v>
       </c>
       <c r="T37">
-        <v>0.08779244481185293</v>
+        <v>0.2570713957456783</v>
       </c>
     </row>
   </sheetData>
